--- a/export/Registros_11-2025.xlsx
+++ b/export/Registros_11-2025.xlsx
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Resumo'!$A$1:$C$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Guilherme'!$A$1:$G$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Taissa'!$A$1:$G$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Taissa'!$A$1:$G$3</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C3" s="3" t="n">
-        <v>0.05416666666666667</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -654,7 +654,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -712,121 +712,43 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>03/11/2025</t>
+          <t>05/11/2025</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Seg</t>
+          <t>Qua</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>09:34</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>09:58</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>10:01</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>10:16</t>
-        </is>
-      </c>
+          <t>23:42</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr"/>
+      <c r="E2" s="2" t="inlineStr"/>
+      <c r="F2" s="2" t="inlineStr"/>
       <c r="G2" s="4" t="n">
-        <v>0.02708333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>04/11/2025</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>Ter</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>09:03</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>09:05</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>09:14</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="inlineStr"/>
-      <c r="G3" s="4" t="n">
+      <c r="A3" s="5" t="inlineStr"/>
+      <c r="B3" s="5" t="inlineStr"/>
+      <c r="C3" s="5" t="inlineStr"/>
+      <c r="D3" s="5" t="inlineStr"/>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="inlineStr"/>
+      <c r="G3" s="7" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>05/11/2025</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>Qua</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>09:34</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>09:58</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>10:01</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>10:16</t>
-        </is>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>0.02708333333333333</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="5" t="inlineStr"/>
-      <c r="B5" s="5" t="inlineStr"/>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="6" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="F5" s="5" t="inlineStr"/>
-      <c r="G5" s="7" t="n">
-        <v>0.05416666666666667</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:G5"/>
+  <autoFilter ref="A1:G3"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/export/Registros_11-2025.xlsx
+++ b/export/Registros_11-2025.xlsx
@@ -13,8 +13,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Resumo'!$A$1:$C$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Guilherme'!$A$1:$G$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Taissa'!$A$1:$G$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Guilherme'!$A$1:$G$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Taissa'!$A$1:$G$32</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C2" s="3" t="n">
-        <v>0.004861111111111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C3" s="3" t="n">
-        <v>0</v>
+        <v>0.13125</v>
       </c>
     </row>
   </sheetData>
@@ -537,7 +537,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -595,55 +595,602 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
+          <t>01/11/2025</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Sáb</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr"/>
+      <c r="D2" s="2" t="inlineStr"/>
+      <c r="E2" s="2" t="inlineStr"/>
+      <c r="F2" s="2" t="inlineStr"/>
+      <c r="G2" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>02/11/2025</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>Dom</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr"/>
+      <c r="D3" s="2" t="inlineStr"/>
+      <c r="E3" s="2" t="inlineStr"/>
+      <c r="F3" s="2" t="inlineStr"/>
+      <c r="G3" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>03/11/2025</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Seg</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr"/>
+      <c r="D4" s="2" t="inlineStr"/>
+      <c r="E4" s="2" t="inlineStr"/>
+      <c r="F4" s="2" t="inlineStr"/>
+      <c r="G4" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>04/11/2025</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>Ter</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr"/>
+      <c r="D5" s="2" t="inlineStr"/>
+      <c r="E5" s="2" t="inlineStr"/>
+      <c r="F5" s="2" t="inlineStr"/>
+      <c r="G5" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
           <t>05/11/2025</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t>Qua</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>09:33</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>09:37</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>09:58</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>10:01</t>
-        </is>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>0.004861111111111111</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="inlineStr"/>
-      <c r="B3" s="5" t="inlineStr"/>
-      <c r="C3" s="5" t="inlineStr"/>
-      <c r="D3" s="5" t="inlineStr"/>
-      <c r="E3" s="6" t="inlineStr">
+      <c r="C6" s="2" t="inlineStr"/>
+      <c r="D6" s="2" t="inlineStr"/>
+      <c r="E6" s="2" t="inlineStr"/>
+      <c r="F6" s="2" t="inlineStr"/>
+      <c r="G6" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>06/11/2025</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>Qui</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr"/>
+      <c r="D7" s="2" t="inlineStr"/>
+      <c r="E7" s="2" t="inlineStr"/>
+      <c r="F7" s="2" t="inlineStr"/>
+      <c r="G7" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>07/11/2025</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Sex</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr"/>
+      <c r="D8" s="2" t="inlineStr"/>
+      <c r="E8" s="2" t="inlineStr"/>
+      <c r="F8" s="2" t="inlineStr"/>
+      <c r="G8" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>08/11/2025</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>Sáb</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr"/>
+      <c r="D9" s="2" t="inlineStr"/>
+      <c r="E9" s="2" t="inlineStr"/>
+      <c r="F9" s="2" t="inlineStr"/>
+      <c r="G9" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>Dom</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr"/>
+      <c r="D10" s="2" t="inlineStr"/>
+      <c r="E10" s="2" t="inlineStr"/>
+      <c r="F10" s="2" t="inlineStr"/>
+      <c r="G10" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>10/11/2025</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>Seg</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr"/>
+      <c r="D11" s="2" t="inlineStr"/>
+      <c r="E11" s="2" t="inlineStr"/>
+      <c r="F11" s="2" t="inlineStr"/>
+      <c r="G11" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>Ter</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr"/>
+      <c r="D12" s="2" t="inlineStr"/>
+      <c r="E12" s="2" t="inlineStr"/>
+      <c r="F12" s="2" t="inlineStr"/>
+      <c r="G12" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>12/11/2025</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>Qua</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>21:38</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>21:39</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>21:43</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr"/>
+      <c r="G13" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>13/11/2025</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>Qui</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr"/>
+      <c r="D14" s="2" t="inlineStr"/>
+      <c r="E14" s="2" t="inlineStr"/>
+      <c r="F14" s="2" t="inlineStr"/>
+      <c r="G14" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>14/11/2025</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>Sex</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr"/>
+      <c r="D15" s="2" t="inlineStr"/>
+      <c r="E15" s="2" t="inlineStr"/>
+      <c r="F15" s="2" t="inlineStr"/>
+      <c r="G15" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>15/11/2025</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>Sáb</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr"/>
+      <c r="D16" s="2" t="inlineStr"/>
+      <c r="E16" s="2" t="inlineStr"/>
+      <c r="F16" s="2" t="inlineStr"/>
+      <c r="G16" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>16/11/2025</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>Dom</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr"/>
+      <c r="D17" s="2" t="inlineStr"/>
+      <c r="E17" s="2" t="inlineStr"/>
+      <c r="F17" s="2" t="inlineStr"/>
+      <c r="G17" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>Seg</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr"/>
+      <c r="D18" s="2" t="inlineStr"/>
+      <c r="E18" s="2" t="inlineStr"/>
+      <c r="F18" s="2" t="inlineStr"/>
+      <c r="G18" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>18/11/2025</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>Ter</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr"/>
+      <c r="D19" s="2" t="inlineStr"/>
+      <c r="E19" s="2" t="inlineStr"/>
+      <c r="F19" s="2" t="inlineStr"/>
+      <c r="G19" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>19/11/2025</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>Qua</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr"/>
+      <c r="D20" s="2" t="inlineStr"/>
+      <c r="E20" s="2" t="inlineStr"/>
+      <c r="F20" s="2" t="inlineStr"/>
+      <c r="G20" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>20/11/2025</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>Qui</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr"/>
+      <c r="D21" s="2" t="inlineStr"/>
+      <c r="E21" s="2" t="inlineStr"/>
+      <c r="F21" s="2" t="inlineStr"/>
+      <c r="G21" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>21/11/2025</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>Sex</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr"/>
+      <c r="D22" s="2" t="inlineStr"/>
+      <c r="E22" s="2" t="inlineStr"/>
+      <c r="F22" s="2" t="inlineStr"/>
+      <c r="G22" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>22/11/2025</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>Sáb</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr"/>
+      <c r="D23" s="2" t="inlineStr"/>
+      <c r="E23" s="2" t="inlineStr"/>
+      <c r="F23" s="2" t="inlineStr"/>
+      <c r="G23" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>Dom</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr"/>
+      <c r="D24" s="2" t="inlineStr"/>
+      <c r="E24" s="2" t="inlineStr"/>
+      <c r="F24" s="2" t="inlineStr"/>
+      <c r="G24" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>24/11/2025</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>Seg</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr"/>
+      <c r="D25" s="2" t="inlineStr"/>
+      <c r="E25" s="2" t="inlineStr"/>
+      <c r="F25" s="2" t="inlineStr"/>
+      <c r="G25" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>Ter</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr"/>
+      <c r="D26" s="2" t="inlineStr"/>
+      <c r="E26" s="2" t="inlineStr"/>
+      <c r="F26" s="2" t="inlineStr"/>
+      <c r="G26" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>26/11/2025</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>Qua</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr"/>
+      <c r="D27" s="2" t="inlineStr"/>
+      <c r="E27" s="2" t="inlineStr"/>
+      <c r="F27" s="2" t="inlineStr"/>
+      <c r="G27" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>27/11/2025</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>Qui</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr"/>
+      <c r="D28" s="2" t="inlineStr"/>
+      <c r="E28" s="2" t="inlineStr"/>
+      <c r="F28" s="2" t="inlineStr"/>
+      <c r="G28" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>28/11/2025</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>Sex</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr"/>
+      <c r="D29" s="2" t="inlineStr"/>
+      <c r="E29" s="2" t="inlineStr"/>
+      <c r="F29" s="2" t="inlineStr"/>
+      <c r="G29" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>29/11/2025</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>Sáb</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr"/>
+      <c r="D30" s="2" t="inlineStr"/>
+      <c r="E30" s="2" t="inlineStr"/>
+      <c r="F30" s="2" t="inlineStr"/>
+      <c r="G30" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>30/11/2025</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>Dom</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr"/>
+      <c r="D31" s="2" t="inlineStr"/>
+      <c r="E31" s="2" t="inlineStr"/>
+      <c r="F31" s="2" t="inlineStr"/>
+      <c r="G31" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="5" t="inlineStr"/>
+      <c r="B32" s="5" t="inlineStr"/>
+      <c r="C32" s="5" t="inlineStr"/>
+      <c r="D32" s="5" t="inlineStr"/>
+      <c r="E32" s="6" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="F3" s="5" t="inlineStr"/>
-      <c r="G3" s="7" t="n">
-        <v>0.004861111111111111</v>
+      <c r="F32" s="5" t="inlineStr"/>
+      <c r="G32" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G3"/>
+  <autoFilter ref="A1:G32"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -654,7 +1201,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -712,19 +1259,15 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>05/11/2025</t>
+          <t>01/11/2025</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Qua</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>23:42</t>
-        </is>
-      </c>
+          <t>Sáb</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr"/>
       <c r="D2" s="2" t="inlineStr"/>
       <c r="E2" s="2" t="inlineStr"/>
       <c r="F2" s="2" t="inlineStr"/>
@@ -733,22 +1276,589 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="inlineStr"/>
-      <c r="B3" s="5" t="inlineStr"/>
-      <c r="C3" s="5" t="inlineStr"/>
-      <c r="D3" s="5" t="inlineStr"/>
-      <c r="E3" s="6" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>02/11/2025</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>Dom</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr"/>
+      <c r="D3" s="2" t="inlineStr"/>
+      <c r="E3" s="2" t="inlineStr"/>
+      <c r="F3" s="2" t="inlineStr"/>
+      <c r="G3" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>03/11/2025</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Seg</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr"/>
+      <c r="D4" s="2" t="inlineStr"/>
+      <c r="E4" s="2" t="inlineStr"/>
+      <c r="F4" s="2" t="inlineStr"/>
+      <c r="G4" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>04/11/2025</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>Ter</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr"/>
+      <c r="D5" s="2" t="inlineStr"/>
+      <c r="E5" s="2" t="inlineStr"/>
+      <c r="F5" s="2" t="inlineStr"/>
+      <c r="G5" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>Qua</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr"/>
+      <c r="D6" s="2" t="inlineStr"/>
+      <c r="E6" s="2" t="inlineStr"/>
+      <c r="F6" s="2" t="inlineStr"/>
+      <c r="G6" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>06/11/2025</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>Qui</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr"/>
+      <c r="D7" s="2" t="inlineStr"/>
+      <c r="E7" s="2" t="inlineStr"/>
+      <c r="F7" s="2" t="inlineStr"/>
+      <c r="G7" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>07/11/2025</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Sex</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr"/>
+      <c r="D8" s="2" t="inlineStr"/>
+      <c r="E8" s="2" t="inlineStr"/>
+      <c r="F8" s="2" t="inlineStr"/>
+      <c r="G8" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>08/11/2025</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>Sáb</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr"/>
+      <c r="D9" s="2" t="inlineStr"/>
+      <c r="E9" s="2" t="inlineStr"/>
+      <c r="F9" s="2" t="inlineStr"/>
+      <c r="G9" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>Dom</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr"/>
+      <c r="D10" s="2" t="inlineStr"/>
+      <c r="E10" s="2" t="inlineStr"/>
+      <c r="F10" s="2" t="inlineStr"/>
+      <c r="G10" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>10/11/2025</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>Seg</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr"/>
+      <c r="D11" s="2" t="inlineStr"/>
+      <c r="E11" s="2" t="inlineStr"/>
+      <c r="F11" s="2" t="inlineStr"/>
+      <c r="G11" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>Ter</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr"/>
+      <c r="D12" s="2" t="inlineStr"/>
+      <c r="E12" s="2" t="inlineStr"/>
+      <c r="F12" s="2" t="inlineStr"/>
+      <c r="G12" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>12/11/2025</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>Qua</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>18:33</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>21:38</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>21:39</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>21:43</t>
+        </is>
+      </c>
+      <c r="G13" s="4" t="n">
+        <v>0.13125</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>13/11/2025</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>Qui</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr"/>
+      <c r="D14" s="2" t="inlineStr"/>
+      <c r="E14" s="2" t="inlineStr"/>
+      <c r="F14" s="2" t="inlineStr"/>
+      <c r="G14" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>14/11/2025</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>Sex</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr"/>
+      <c r="D15" s="2" t="inlineStr"/>
+      <c r="E15" s="2" t="inlineStr"/>
+      <c r="F15" s="2" t="inlineStr"/>
+      <c r="G15" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>15/11/2025</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>Sáb</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr"/>
+      <c r="D16" s="2" t="inlineStr"/>
+      <c r="E16" s="2" t="inlineStr"/>
+      <c r="F16" s="2" t="inlineStr"/>
+      <c r="G16" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>16/11/2025</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>Dom</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr"/>
+      <c r="D17" s="2" t="inlineStr"/>
+      <c r="E17" s="2" t="inlineStr"/>
+      <c r="F17" s="2" t="inlineStr"/>
+      <c r="G17" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>Seg</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr"/>
+      <c r="D18" s="2" t="inlineStr"/>
+      <c r="E18" s="2" t="inlineStr"/>
+      <c r="F18" s="2" t="inlineStr"/>
+      <c r="G18" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>18/11/2025</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>Ter</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr"/>
+      <c r="D19" s="2" t="inlineStr"/>
+      <c r="E19" s="2" t="inlineStr"/>
+      <c r="F19" s="2" t="inlineStr"/>
+      <c r="G19" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>19/11/2025</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>Qua</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr"/>
+      <c r="D20" s="2" t="inlineStr"/>
+      <c r="E20" s="2" t="inlineStr"/>
+      <c r="F20" s="2" t="inlineStr"/>
+      <c r="G20" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>20/11/2025</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>Qui</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr"/>
+      <c r="D21" s="2" t="inlineStr"/>
+      <c r="E21" s="2" t="inlineStr"/>
+      <c r="F21" s="2" t="inlineStr"/>
+      <c r="G21" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>21/11/2025</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>Sex</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr"/>
+      <c r="D22" s="2" t="inlineStr"/>
+      <c r="E22" s="2" t="inlineStr"/>
+      <c r="F22" s="2" t="inlineStr"/>
+      <c r="G22" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>22/11/2025</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>Sáb</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr"/>
+      <c r="D23" s="2" t="inlineStr"/>
+      <c r="E23" s="2" t="inlineStr"/>
+      <c r="F23" s="2" t="inlineStr"/>
+      <c r="G23" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>Dom</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr"/>
+      <c r="D24" s="2" t="inlineStr"/>
+      <c r="E24" s="2" t="inlineStr"/>
+      <c r="F24" s="2" t="inlineStr"/>
+      <c r="G24" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>24/11/2025</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>Seg</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr"/>
+      <c r="D25" s="2" t="inlineStr"/>
+      <c r="E25" s="2" t="inlineStr"/>
+      <c r="F25" s="2" t="inlineStr"/>
+      <c r="G25" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>Ter</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr"/>
+      <c r="D26" s="2" t="inlineStr"/>
+      <c r="E26" s="2" t="inlineStr"/>
+      <c r="F26" s="2" t="inlineStr"/>
+      <c r="G26" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>26/11/2025</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>Qua</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr"/>
+      <c r="D27" s="2" t="inlineStr"/>
+      <c r="E27" s="2" t="inlineStr"/>
+      <c r="F27" s="2" t="inlineStr"/>
+      <c r="G27" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>27/11/2025</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>Qui</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr"/>
+      <c r="D28" s="2" t="inlineStr"/>
+      <c r="E28" s="2" t="inlineStr"/>
+      <c r="F28" s="2" t="inlineStr"/>
+      <c r="G28" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>28/11/2025</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>Sex</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr"/>
+      <c r="D29" s="2" t="inlineStr"/>
+      <c r="E29" s="2" t="inlineStr"/>
+      <c r="F29" s="2" t="inlineStr"/>
+      <c r="G29" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>29/11/2025</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>Sáb</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr"/>
+      <c r="D30" s="2" t="inlineStr"/>
+      <c r="E30" s="2" t="inlineStr"/>
+      <c r="F30" s="2" t="inlineStr"/>
+      <c r="G30" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>30/11/2025</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>Dom</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr"/>
+      <c r="D31" s="2" t="inlineStr"/>
+      <c r="E31" s="2" t="inlineStr"/>
+      <c r="F31" s="2" t="inlineStr"/>
+      <c r="G31" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="5" t="inlineStr"/>
+      <c r="B32" s="5" t="inlineStr"/>
+      <c r="C32" s="5" t="inlineStr"/>
+      <c r="D32" s="5" t="inlineStr"/>
+      <c r="E32" s="6" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="F3" s="5" t="inlineStr"/>
-      <c r="G3" s="7" t="n">
-        <v>0</v>
+      <c r="F32" s="5" t="inlineStr"/>
+      <c r="G32" s="7" t="n">
+        <v>0.13125</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G3"/>
+  <autoFilter ref="A1:G32"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>